--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_11_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_11_5.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9985683534437266</v>
+        <v>0.9980151067688025</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997899797461321</v>
+        <v>0.9977161756891417</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9983310239372128</v>
+        <v>0.9982734663443816</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9985629495525312</v>
+        <v>0.9983135959333233</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9984615884761044</v>
+        <v>0.9982979617337676</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001336379218260342</v>
+        <v>0.001852810704579731</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001960446881620004</v>
+        <v>0.002131849745885139</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001411035159729275</v>
+        <v>0.002416632017823312</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001442846321139908</v>
+        <v>0.002012707769332929</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001426940740434591</v>
+        <v>0.002214669893578121</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004343003371739599</v>
+        <v>0.00513247851704978</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03655652087193668</v>
+        <v>0.04304428771137619</v>
       </c>
       <c r="N2" t="n">
-        <v>1.006871903470112</v>
+        <v>1.009527487509748</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0381128076478855</v>
+        <v>0.04487677215320875</v>
       </c>
       <c r="P2" t="n">
-        <v>71.23558279628217</v>
+        <v>70.58210298617465</v>
       </c>
       <c r="Q2" t="n">
-        <v>106.58298171746</v>
+        <v>105.9295019073525</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9985387845685243</v>
+        <v>0.9979760492614868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9978731817284938</v>
+        <v>0.9976847517967953</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9982956217004937</v>
+        <v>0.9982509369687046</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9985321626404042</v>
+        <v>0.998270384432402</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9984287910867646</v>
+        <v>0.9982660266850399</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001363980465338052</v>
+        <v>0.001889269173232457</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001985291499918555</v>
+        <v>0.00216118257004108</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001440965966921583</v>
+        <v>0.002448166422279018</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001473757402222548</v>
+        <v>0.002064280298922451</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001457361684572066</v>
+        <v>0.002256223360600735</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004387431506299645</v>
+        <v>0.005182611439037032</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03693210615897843</v>
+        <v>0.04346572411949969</v>
       </c>
       <c r="N3" t="n">
-        <v>1.007013834071083</v>
+        <v>1.009714963544864</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03850438237816534</v>
+        <v>0.04531614998171969</v>
       </c>
       <c r="P3" t="n">
-        <v>71.19469608252618</v>
+        <v>70.54313041104056</v>
       </c>
       <c r="Q3" t="n">
-        <v>106.542095003704</v>
+        <v>105.8905293322184</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9985086307097595</v>
+        <v>0.9979361918123292</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9978459834834944</v>
+        <v>0.9976525742126886</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9982595405289114</v>
+        <v>0.9982279614228968</v>
       </c>
       <c r="E4" t="n">
-        <v>0.998500762299014</v>
+        <v>0.9982261669418502</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9983953522660867</v>
+        <v>0.9982333902979957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001392127768893635</v>
+        <v>0.001926474352481265</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002010679867760533</v>
+        <v>0.002191218932371987</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001471470779328402</v>
+        <v>0.002480325331805803</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001505284386635198</v>
+        <v>0.002117053467899441</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0014883775829818</v>
+        <v>0.002298689399852622</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004432279901604002</v>
+        <v>0.005233244095651185</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03731122845597067</v>
+        <v>0.04389162052694415</v>
       </c>
       <c r="N4" t="n">
-        <v>1.007158572593154</v>
+        <v>1.00990627930082</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03889964469623189</v>
+        <v>0.04576017768095617</v>
       </c>
       <c r="P4" t="n">
-        <v>71.15384386656774</v>
+        <v>70.50412741399852</v>
       </c>
       <c r="Q4" t="n">
-        <v>106.5012427877456</v>
+        <v>105.8515263351763</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9984778463224337</v>
+        <v>0.9978954708211701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9978181939693604</v>
+        <v>0.9976195976287446</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9982227290454379</v>
+        <v>0.9982043875617523</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9984686832577546</v>
+        <v>0.998181001339003</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9983612132724801</v>
+        <v>0.9981999972839487</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001420863643183754</v>
+        <v>0.001964485610283281</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00203662015938584</v>
+        <v>0.002222001125978882</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001502593033638187</v>
+        <v>0.002513321704300579</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001537492808231186</v>
+        <v>0.002170958200195435</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001520042920934686</v>
+        <v>0.002342139952248007</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00447760477641703</v>
+        <v>0.005284443044356235</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03769434497618647</v>
+        <v>0.04432251809501894</v>
       </c>
       <c r="N5" t="n">
-        <v>1.007306337652318</v>
+        <v>1.010101740058383</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03929907127987381</v>
+        <v>0.04620941945058483</v>
       </c>
       <c r="P5" t="n">
-        <v>71.1129807856442</v>
+        <v>70.46504968773495</v>
       </c>
       <c r="Q5" t="n">
-        <v>106.460379706822</v>
+        <v>105.8124486089128</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9984464305295677</v>
+        <v>0.9978539251733161</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9977898148044908</v>
+        <v>0.9975858728535015</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9981851119880685</v>
+        <v>0.9981803851661155</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9984358947871509</v>
+        <v>0.9981348049391197</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9983263231736517</v>
+        <v>0.9981659010399359</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001450188906830286</v>
+        <v>0.00200326664891187</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002063110864090326</v>
+        <v>0.002253481723321798</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001534396360083173</v>
+        <v>0.002546917897234051</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001570413520423088</v>
+        <v>0.002226093179289523</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00155240494025313</v>
+        <v>0.002386505538261787</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0045233790702774</v>
+        <v>0.005336131894557364</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03808134591673838</v>
+        <v>0.0447578668941212</v>
       </c>
       <c r="N6" t="n">
-        <v>1.007457133458075</v>
+        <v>1.010301159168083</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03970254765166739</v>
+        <v>0.04666330194936113</v>
       </c>
       <c r="P6" t="n">
-        <v>71.07212290092563</v>
+        <v>70.42595221277998</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.4195218221034</v>
+        <v>105.7733511339578</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9984143811209234</v>
+        <v>0.9978115124478829</v>
       </c>
       <c r="C7" t="n">
-        <v>0.997760819950992</v>
+        <v>0.9975513336704219</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9981467034091382</v>
+        <v>0.9981558659081637</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9984024971802699</v>
+        <v>0.9980876057217393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9982907426558839</v>
+        <v>0.9981310668902021</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001480105622993296</v>
+        <v>0.002042857066400249</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002090176287104508</v>
+        <v>0.002285722534631684</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001566868878122328</v>
+        <v>0.002581237543206036</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001603945825644572</v>
+        <v>0.002282425011858586</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00158540735188345</v>
+        <v>0.002431831277532311</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004569609444275163</v>
+        <v>0.005388360709146445</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03847214086833869</v>
+        <v>0.04519797635293254</v>
       </c>
       <c r="N7" t="n">
-        <v>1.007610970619568</v>
+        <v>1.010504740250162</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04010997955341441</v>
+        <v>0.04712214777898625</v>
       </c>
       <c r="P7" t="n">
-        <v>71.0312836537305</v>
+        <v>70.38681185639608</v>
       </c>
       <c r="Q7" t="n">
-        <v>106.3786825749083</v>
+        <v>105.7342107775739</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9983816364491569</v>
+        <v>0.9977682269699133</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9977311709520921</v>
+        <v>0.9975160037717099</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9981074496732417</v>
+        <v>0.9981308344548728</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9983682682743915</v>
+        <v>0.9980393641398115</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9982543270330718</v>
+        <v>0.9980954792079886</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001510671336762325</v>
+        <v>0.002083262160072028</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002117852326136917</v>
+        <v>0.002318701444276011</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001600055933788229</v>
+        <v>0.002616274109842679</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001638312782636344</v>
+        <v>0.002340000896944173</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001619184358212286</v>
+        <v>0.002478137503393426</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004616350264235881</v>
+        <v>0.005441125093841368</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03886735566979474</v>
+        <v>0.04564276678809061</v>
       </c>
       <c r="N8" t="n">
-        <v>1.007768145044047</v>
+        <v>1.010712510544416</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04052201946717587</v>
+        <v>0.04758587386381214</v>
       </c>
       <c r="P8" t="n">
-        <v>70.99040226615109</v>
+        <v>70.34764053530188</v>
       </c>
       <c r="Q8" t="n">
-        <v>106.3378011873289</v>
+        <v>105.6950394564797</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9983482498026289</v>
+        <v>0.9977240635923267</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9977008996044461</v>
+        <v>0.9974798460025793</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9980674883557461</v>
+        <v>0.9981053300503567</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9983334581103763</v>
+        <v>0.9979900638400098</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9982172743353331</v>
+        <v>0.9980591516010662</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001541836305791741</v>
+        <v>0.00212448673450084</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002146109300405922</v>
+        <v>0.002352453134616766</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001633841214040371</v>
+        <v>0.002651972667092679</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001673263342079916</v>
+        <v>0.002398840352091579</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001653552278060143</v>
+        <v>0.002525406509592129</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004663541023373185</v>
+        <v>0.005494411006949819</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03926622347249276</v>
+        <v>0.04609215480427054</v>
       </c>
       <c r="N9" t="n">
-        <v>1.007928400947381</v>
+        <v>1.010924494756832</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04093786789800492</v>
+        <v>0.04805439325820228</v>
       </c>
       <c r="P9" t="n">
-        <v>70.94956233310032</v>
+        <v>70.30845008497187</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.2969612542781</v>
+        <v>105.6558490061497</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9983141791306391</v>
+        <v>0.9976789411413448</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9976699737681813</v>
+        <v>0.9974427966220598</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9980266236683092</v>
+        <v>0.9980792049767043</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9982978578599441</v>
+        <v>0.9979396200333746</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9981793823077589</v>
+        <v>0.9980219657329183</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001573639782564617</v>
+        <v>0.002166606561845819</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002174977211071697</v>
+        <v>0.002387037105051944</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001668390248056269</v>
+        <v>0.002688539975960997</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001709007174495977</v>
+        <v>0.002459044572145066</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001688698711276123</v>
+        <v>0.002573792274053032</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004711208112559108</v>
+        <v>0.005548280642934655</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03966912883546369</v>
+        <v>0.04654682117874236</v>
       </c>
       <c r="N10" t="n">
-        <v>1.008091940172932</v>
+        <v>1.011141082521545</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0413579257764066</v>
+        <v>0.04852841572152451</v>
       </c>
       <c r="P10" t="n">
-        <v>70.90872801993117</v>
+        <v>70.26918626363997</v>
       </c>
       <c r="Q10" t="n">
-        <v>106.256126941109</v>
+        <v>105.6165851848178</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9982793994816958</v>
+        <v>0.9976328858920379</v>
       </c>
       <c r="C11" t="n">
-        <v>0.997638380629241</v>
+        <v>0.9974048900951764</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9979848925292653</v>
+        <v>0.9980525265665438</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9982615271845293</v>
+        <v>0.9978880891367331</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9981407000665545</v>
+        <v>0.9979839836924569</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001606105058203099</v>
+        <v>0.002209597115481972</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002204468019493943</v>
+        <v>0.002422421183993391</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001703671823244433</v>
+        <v>0.002725881790856247</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00174548437782528</v>
+        <v>0.002520546224139658</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001724578100534856</v>
+        <v>0.002623214007497952</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004759370259237742</v>
+        <v>0.005602703749602569</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04007624056973282</v>
+        <v>0.04700635186314688</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00825888248786</v>
+        <v>1.011362147718218</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04178236910004103</v>
+        <v>0.04900750957852378</v>
       </c>
       <c r="P11" t="n">
-        <v>70.86788649906083</v>
+        <v>70.22989016151631</v>
       </c>
       <c r="Q11" t="n">
-        <v>106.2152854202386</v>
+        <v>105.5772890826941</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9982439377697266</v>
+        <v>0.9975858745518866</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9976061258457788</v>
+        <v>0.9973660594104804</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9979423961543332</v>
+        <v>0.998025183250822</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9982245000516065</v>
+        <v>0.997835460731179</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9981012921248675</v>
+        <v>0.9979451406933478</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001639207009737024</v>
+        <v>0.002253480137953817</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002234576444034619</v>
+        <v>0.002458667923687039</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001739600366815048</v>
+        <v>0.002764154275166961</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00178266084759651</v>
+        <v>0.00258335774294432</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001761130607205779</v>
+        <v>0.002673756009055641</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004807993253750918</v>
+        <v>0.005657681375091877</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04048712152940764</v>
+        <v>0.04747083460351015</v>
       </c>
       <c r="N12" t="n">
-        <v>1.008429098705312</v>
+        <v>1.011587802150944</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04221074211281006</v>
+        <v>0.04949176631075614</v>
       </c>
       <c r="P12" t="n">
-        <v>70.82708536946565</v>
+        <v>70.19055905947607</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.1744842906435</v>
+        <v>105.5379579806539</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9982077334156865</v>
+        <v>0.9975379091915285</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9975731610060543</v>
+        <v>0.997326371199694</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9978989463706666</v>
+        <v>0.9979973802516034</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9981866663198506</v>
+        <v>0.9977816746450068</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9980610131112164</v>
+        <v>0.9979055195197345</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001673002185046076</v>
+        <v>0.002298253696412119</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002265347674928172</v>
+        <v>0.002495715126345023</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001776334969427504</v>
+        <v>0.002803070179229646</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001820647169353745</v>
+        <v>0.002647550942937078</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001798491069390625</v>
+        <v>0.002725310561083362</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004857117600328969</v>
+        <v>0.005713210386612801</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04090234938296426</v>
+        <v>0.04794010530247216</v>
       </c>
       <c r="N13" t="n">
-        <v>1.008602879604705</v>
+        <v>1.011818035880663</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04264364707573272</v>
+        <v>0.04998101483489722</v>
       </c>
       <c r="P13" t="n">
-        <v>70.78627110182741</v>
+        <v>70.1512114137245</v>
       </c>
       <c r="Q13" t="n">
-        <v>106.1336700230052</v>
+        <v>105.4986103349023</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9981707900840759</v>
+        <v>0.9974889554635673</v>
       </c>
       <c r="C14" t="n">
-        <v>0.997539477345765</v>
+        <v>0.9972857535889194</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9978546133399305</v>
+        <v>0.9979690437589626</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9981480832349747</v>
+        <v>0.9977266460776631</v>
       </c>
       <c r="F14" t="n">
-        <v>0.998019925984903</v>
+        <v>0.9978650415816169</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00170748716347965</v>
+        <v>0.002343949852643594</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00229678989326642</v>
+        <v>0.002533629883096107</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001813816312929529</v>
+        <v>0.002842732814919371</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001859385866502057</v>
+        <v>0.002713227032799725</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001836601089715793</v>
+        <v>0.002777979923859548</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004906736548617768</v>
+        <v>0.005769299331177717</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04132175169907067</v>
+        <v>0.04841435585282111</v>
       </c>
       <c r="N14" t="n">
-        <v>1.008780207596435</v>
+        <v>1.012053013774877</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04308090421671827</v>
+        <v>0.05047545521300851</v>
       </c>
       <c r="P14" t="n">
-        <v>70.74546496855093</v>
+        <v>70.11183560283921</v>
       </c>
       <c r="Q14" t="n">
-        <v>106.0928638897287</v>
+        <v>105.459234524017</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9981331131225822</v>
+        <v>0.9974389756033901</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9975050761485106</v>
+        <v>0.9972441780515743</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9978094136642677</v>
+        <v>0.9979399686330535</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9981087852439023</v>
+        <v>0.997670501927254</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9979780569561407</v>
+        <v>0.9978236547408825</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001742656953206537</v>
+        <v>0.002390603858256778</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002328901900865359</v>
+        <v>0.002572438822252567</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001852030361046074</v>
+        <v>0.002883429316818138</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001898842353187547</v>
+        <v>0.002780234560807976</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00187543635711681</v>
+        <v>0.002831831938813057</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004956834949472905</v>
+        <v>0.005825990678181597</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04174514286963858</v>
+        <v>0.04889380183885047</v>
       </c>
       <c r="N15" t="n">
-        <v>1.008961057011605</v>
+        <v>1.012292917103727</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04352232002595781</v>
+        <v>0.05097531220725315</v>
       </c>
       <c r="P15" t="n">
-        <v>70.70468869161954</v>
+        <v>70.07241856918696</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.0520876127974</v>
+        <v>105.4198174903648</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9980946323457208</v>
+        <v>0.9973879476634646</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9974699391353454</v>
+        <v>0.9972016142755622</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9977632161864533</v>
+        <v>0.9979104122870185</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9980685030268083</v>
+        <v>0.9976130210759054</v>
       </c>
       <c r="F16" t="n">
-        <v>0.997935200485443</v>
+        <v>0.9977813960404227</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001778577069295821</v>
+        <v>0.002438236200309502</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002361700760318412</v>
+        <v>0.002612170238826002</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001891088000601462</v>
+        <v>0.002924799383324335</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001939287035449068</v>
+        <v>0.002848837429114169</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001915187518025265</v>
+        <v>0.002886818406219252</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005007487840279815</v>
+        <v>0.005883276082722014</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04217317950185664</v>
+        <v>0.04937849937279891</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00914576474054</v>
+        <v>1.01253785121537</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04396857906376737</v>
+        <v>0.05148064431868399</v>
       </c>
       <c r="P16" t="n">
-        <v>70.66388326728027</v>
+        <v>70.03296073959643</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.0112821884581</v>
+        <v>105.3803596607742</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.998055375445036</v>
+        <v>0.9973358685082195</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9974340466118835</v>
+        <v>0.9971580521442424</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9977160339002686</v>
+        <v>0.9978800253222595</v>
       </c>
       <c r="E17" t="n">
-        <v>0.998027423767019</v>
+        <v>0.9975544021335857</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9978914638045767</v>
+        <v>0.9977381686399512</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001815221662906313</v>
+        <v>0.002486849805720066</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002395204855470456</v>
+        <v>0.002652833576256521</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001930978246008378</v>
+        <v>0.002967332068234446</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001980531975017092</v>
+        <v>0.002918798598544596</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001955755110512735</v>
+        <v>0.002943065333389521</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005058638962111233</v>
+        <v>0.005941150769413601</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0426054182341438</v>
+        <v>0.049868324673284</v>
       </c>
       <c r="N17" t="n">
-        <v>1.009334197863827</v>
+        <v>1.012787831160546</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04441921909374551</v>
+        <v>0.05199132249628889</v>
       </c>
       <c r="P17" t="n">
-        <v>70.62309538079869</v>
+        <v>69.99347701546719</v>
       </c>
       <c r="Q17" t="n">
-        <v>105.9704943019765</v>
+        <v>105.340875936645</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9980153210579379</v>
+        <v>0.9972827033294707</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9973973796893304</v>
+        <v>0.9971134758943874</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9976679067341816</v>
+        <v>0.9978489859899657</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9979854957579073</v>
+        <v>0.9974945113574757</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9978468371254844</v>
+        <v>0.9976940070762662</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001852610675078002</v>
+        <v>0.002536477166400525</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002429431818181902</v>
+        <v>0.002694443548824916</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001971667339759437</v>
+        <v>0.003010777873063565</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00202262908706084</v>
+        <v>0.002990277689926048</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001997148213410139</v>
+        <v>0.003000527781494806</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005110293972053172</v>
+        <v>0.005999624118535556</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04304196411733557</v>
+        <v>0.05036345069989272</v>
       </c>
       <c r="N18" t="n">
-        <v>1.009526458921898</v>
+        <v>1.013043024018541</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04487434963895931</v>
+        <v>0.05250752706290251</v>
       </c>
       <c r="P18" t="n">
-        <v>70.58231891789353</v>
+        <v>69.95395820601698</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.9297178390713</v>
+        <v>105.3013571271948</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9979744143716723</v>
+        <v>0.9972284992114128</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9973599063526465</v>
+        <v>0.9970679343807992</v>
       </c>
       <c r="D19" t="n">
-        <v>0.997618784560935</v>
+        <v>0.9978174798798308</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9979426913496098</v>
+        <v>0.9974332960745771</v>
       </c>
       <c r="F19" t="n">
-        <v>0.997801282637761</v>
+        <v>0.9976489870131565</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001890795271110867</v>
+        <v>0.002587074331321729</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002464411533086978</v>
+        <v>0.002736954552718055</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002013197661924443</v>
+        <v>0.0030548770276101</v>
       </c>
       <c r="J19" t="n">
-        <v>0.002065606132960178</v>
+        <v>0.003063337567998229</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00203940189744231</v>
+        <v>0.003059107297804164</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00516251389923294</v>
+        <v>0.006058643905631786</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04348327576334224</v>
+        <v>0.0508632906065045</v>
       </c>
       <c r="N19" t="n">
-        <v>1.009722811015973</v>
+        <v>1.013303203785219</v>
       </c>
       <c r="O19" t="n">
-        <v>0.04533444883537754</v>
+        <v>0.05302864618915</v>
       </c>
       <c r="P19" t="n">
-        <v>70.54151552009488</v>
+        <v>69.91445528711591</v>
       </c>
       <c r="Q19" t="n">
-        <v>105.8889144412727</v>
+        <v>105.2618542082937</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9979327079028254</v>
+        <v>0.997173076898963</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9973216516789238</v>
+        <v>0.9970212407402544</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9975686016243118</v>
+        <v>0.9977850822548395</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9978990596519456</v>
+        <v>0.9973707223657508</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9977547969530516</v>
+        <v>0.9976028644475179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001929726429077094</v>
+        <v>0.002638808627235299</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002500120591820947</v>
+        <v>0.002780541016552613</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00205562480607145</v>
+        <v>0.003100224036978178</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002109413804827776</v>
+        <v>0.0031380187149425</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002082519305449613</v>
+        <v>0.003119121375960339</v>
       </c>
       <c r="L20" t="n">
-        <v>0.005215229400766967</v>
+        <v>0.006118373305562713</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04392865157362668</v>
+        <v>0.05136933547589748</v>
       </c>
       <c r="N20" t="n">
-        <v>1.009923002066438</v>
+        <v>1.013569230884978</v>
       </c>
       <c r="O20" t="n">
-        <v>0.04579878521596081</v>
+        <v>0.05355623443629033</v>
       </c>
       <c r="P20" t="n">
-        <v>70.50075406540904</v>
+        <v>69.87485548248533</v>
       </c>
       <c r="Q20" t="n">
-        <v>105.8481529865869</v>
+        <v>105.2222544036631</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9978901399295055</v>
+        <v>0.9971165461937934</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9972825687979534</v>
+        <v>0.9969735013547044</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9975174796258865</v>
+        <v>0.997752038876263</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9978545173726823</v>
+        <v>0.9973068179040896</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9977073904560027</v>
+        <v>0.9975557842547873</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001969461763653135</v>
+        <v>0.002691577559099882</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002536602745666599</v>
+        <v>0.002825103637446692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002098845879651905</v>
+        <v>0.003146474908709149</v>
       </c>
       <c r="J21" t="n">
-        <v>0.002154135730827955</v>
+        <v>0.003214288103176256</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00212649080523993</v>
+        <v>0.003180381505942702</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005268476227930891</v>
+        <v>0.006178686565176521</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04437861831617941</v>
+        <v>0.05188041594956504</v>
       </c>
       <c r="N21" t="n">
-        <v>1.010127328338374</v>
+        <v>1.013840578269792</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04626790797430358</v>
+        <v>0.05408907266380435</v>
       </c>
       <c r="P21" t="n">
-        <v>70.45998997996475</v>
+        <v>69.83525560813575</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.8073889011426</v>
+        <v>105.1826545293136</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.997846718895833</v>
+        <v>0.9970588705328087</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9972426545550394</v>
+        <v>0.9969246812559408</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9974652607196595</v>
+        <v>0.9977183581817409</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9978090711328487</v>
+        <v>0.9972415108823529</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9976589947922131</v>
+        <v>0.9975077180412326</v>
       </c>
       <c r="G22" t="n">
-        <v>0.002009993392623367</v>
+        <v>0.002745415256960149</v>
       </c>
       <c r="H22" t="n">
-        <v>0.002573860939394111</v>
+        <v>0.002870675056687921</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00214299433350445</v>
+        <v>0.003193617832624621</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002199765263228175</v>
+        <v>0.003292231433982137</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002171379798366312</v>
+        <v>0.003242924633303379</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005322253237325695</v>
+        <v>0.006239583300984011</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04483294985413482</v>
+        <v>0.05239671036391644</v>
       </c>
       <c r="N22" t="n">
-        <v>1.010335749300002</v>
+        <v>1.014117421442518</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04674158134642568</v>
+        <v>0.05462734680025148</v>
       </c>
       <c r="P22" t="n">
-        <v>70.41924768833722</v>
+        <v>69.79564587576166</v>
       </c>
       <c r="Q22" t="n">
-        <v>105.766646609515</v>
+        <v>105.1430447969395</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9978024175426059</v>
+        <v>0.996999956667876</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9972018944970207</v>
+        <v>0.9968746800983629</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9974119841221629</v>
+        <v>0.9976838502689546</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9977627295661577</v>
+        <v>0.9971747737128027</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9976096325073749</v>
+        <v>0.9974585510146199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002051346761256111</v>
+        <v>0.002800408763855122</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002611908664394817</v>
+        <v>0.002917348942489699</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002188037012027213</v>
+        <v>0.003241918615315053</v>
       </c>
       <c r="J23" t="n">
-        <v>0.002246293733494234</v>
+        <v>0.003371881633072084</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002217165372760724</v>
+        <v>0.003306900124193568</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005376563008981927</v>
+        <v>0.006301163436641621</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04529179573892065</v>
+        <v>0.0529188885357121</v>
       </c>
       <c r="N23" t="n">
-        <v>1.010548395795492</v>
+        <v>1.014400207994195</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04721996125046878</v>
+        <v>0.0551717551778783</v>
       </c>
       <c r="P23" t="n">
-        <v>70.37851748964623</v>
+        <v>69.75597977072988</v>
       </c>
       <c r="Q23" t="n">
-        <v>105.725916410824</v>
+        <v>105.1033786919077</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9977571981394323</v>
+        <v>0.9969398592732893</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9971602556776331</v>
+        <v>0.9968235678214653</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9973575883590005</v>
+        <v>0.9976486432269338</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9977154311681482</v>
+        <v>0.9971066307040106</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9975592422964104</v>
+        <v>0.9974083632166726</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002093557089216345</v>
+        <v>0.002856507043731049</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002650776674560106</v>
+        <v>0.00296506000940393</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00223402588872475</v>
+        <v>0.003291197970353049</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002293782894145602</v>
+        <v>0.003453209688389133</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002263904391435177</v>
+        <v>0.003372203829371091</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005431437197935346</v>
+        <v>0.006363354509036317</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04575540502734454</v>
+        <v>0.05344630056169509</v>
       </c>
       <c r="N24" t="n">
-        <v>1.010765448930725</v>
+        <v>1.014688675488211</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04770330734610439</v>
+        <v>0.05572162022570079</v>
       </c>
       <c r="P24" t="n">
-        <v>70.33778140625883</v>
+        <v>69.71631142788422</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.6851803274366</v>
+        <v>105.063710349062</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9977110403960295</v>
+        <v>0.9968784768415536</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9971177102528984</v>
+        <v>0.9967712135721079</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9973020633644052</v>
+        <v>0.997612556577445</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9976670951405843</v>
+        <v>0.997036984885023</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9975077758411611</v>
+        <v>0.9973570131036872</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002136643316592003</v>
+        <v>0.002913804849379005</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00269049096102166</v>
+        <v>0.003013930403093233</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002280969473695539</v>
+        <v>0.00334170851342124</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002342313869291164</v>
+        <v>0.003536331333876098</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002311641671493352</v>
+        <v>0.003439019923648669</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005486887507175492</v>
+        <v>0.006426211598587899</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04622383926711414</v>
+        <v>0.05397967070461809</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010987006099058</v>
+        <v>1.014983311160543</v>
       </c>
       <c r="O25" t="n">
-        <v>0.04819168380125354</v>
+        <v>0.05627769703983643</v>
       </c>
       <c r="P25" t="n">
-        <v>70.29703845009891</v>
+        <v>69.67659108693157</v>
       </c>
       <c r="Q25" t="n">
-        <v>105.6444373712767</v>
+        <v>105.0239900081094</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9976639780647967</v>
+        <v>0.9968158165097963</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9970742612586461</v>
+        <v>0.9967176606605955</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9972454356022918</v>
+        <v>0.9975757394089457</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9976178803156013</v>
+        <v>0.9969657602945967</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9974553311677599</v>
+        <v>0.9973045460266872</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002180573937000283</v>
+        <v>0.002972295518603665</v>
       </c>
       <c r="H26" t="n">
-        <v>0.002731048689965832</v>
+        <v>0.003063919695288851</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002328845393033311</v>
+        <v>0.003393241565158285</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002391727186198254</v>
+        <v>0.003621337228579028</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002360286289615782</v>
+        <v>0.003507289396868656</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005542851315584626</v>
+        <v>0.006489724823395263</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04669661590522682</v>
+        <v>0.05451876299590504</v>
       </c>
       <c r="N26" t="n">
-        <v>1.011212905288976</v>
+        <v>1.015284080752977</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04868458751963324</v>
+        <v>0.05683973960603835</v>
       </c>
       <c r="P26" t="n">
-        <v>70.25633432595656</v>
+        <v>69.63684144563123</v>
       </c>
       <c r="Q26" t="n">
-        <v>105.6037332471344</v>
+        <v>104.984240366809</v>
       </c>
     </row>
   </sheetData>
